--- a/biology/Zoologie/Capitata/Capitata.xlsx
+++ b/biology/Zoologie/Capitata/Capitata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Capitata sont un sous-ordre d'animaux de la classe des hydrozoaires, qui fait partie de l'embranchement des cnidaires (les cnidaires sont des animaux relativement simples, spécifiques du milieu aquatique ; on y retrouve, entre autres, les coraux, les anémones de mer et les méduses).
 Comme tous les hydrozoaires, ces animaux passent par un stade méduse et un stade polype, privilégiant parfois l'un ou l'autre. Ce groupe contient notamment les coraux de feu, les porpites et les vélelles. 
@@ -512,9 +524,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (10 septembre 2023)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (10 septembre 2023) :
 famille Asyncorynidae Kramp, 1949
 famille Cladocorynidae Allman, 1872
 famille Cladonematidae Gegenbaur, 1857
